--- a/natmiOut/OldD7/LR-pairs_lrc2p/Adam23-Itga4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Adam23-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>19.9889956405852</v>
+        <v>0.269164</v>
       </c>
       <c r="H2">
-        <v>19.9889956405852</v>
+        <v>0.8074920000000001</v>
       </c>
       <c r="I2">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781685</v>
       </c>
       <c r="J2">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781686</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.317727218227285</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N2">
-        <v>0.317727218227285</v>
+        <v>1.14273</v>
       </c>
       <c r="O2">
-        <v>0.006115759881883679</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P2">
-        <v>0.006115759881883679</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q2">
-        <v>6.351047980040462</v>
+        <v>0.10252725924</v>
       </c>
       <c r="R2">
-        <v>6.351047980040462</v>
+        <v>0.92274533316</v>
       </c>
       <c r="S2">
-        <v>0.005455055317082608</v>
+        <v>7.226944618900765E-05</v>
       </c>
       <c r="T2">
-        <v>0.005455055317082608</v>
+        <v>7.226944618900769E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>19.9889956405852</v>
+        <v>0.269164</v>
       </c>
       <c r="H3">
-        <v>19.9889956405852</v>
+        <v>0.8074920000000001</v>
       </c>
       <c r="I3">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781685</v>
       </c>
       <c r="J3">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781686</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.3201449905407</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>50.3201449905407</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.968585334617363</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P3">
-        <v>0.968585334617363</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q3">
-        <v>1005.849158849533</v>
+        <v>0.08599287360533334</v>
       </c>
       <c r="R3">
-        <v>1005.849158849533</v>
+        <v>0.7739358624480002</v>
       </c>
       <c r="S3">
-        <v>0.8639460478663014</v>
+        <v>6.061468333130072E-05</v>
       </c>
       <c r="T3">
-        <v>0.8639460478663014</v>
+        <v>6.061468333130075E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>19.9889956405852</v>
+        <v>0.269164</v>
       </c>
       <c r="H4">
-        <v>19.9889956405852</v>
+        <v>0.8074920000000001</v>
       </c>
       <c r="I4">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781685</v>
       </c>
       <c r="J4">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781686</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.31433395427447</v>
+        <v>54.69403966666666</v>
       </c>
       <c r="N4">
-        <v>1.31433395427447</v>
+        <v>164.082119</v>
       </c>
       <c r="O4">
-        <v>0.02529890550075341</v>
+        <v>0.9528104755815301</v>
       </c>
       <c r="P4">
-        <v>0.02529890550075341</v>
+        <v>0.9528104755815303</v>
       </c>
       <c r="Q4">
-        <v>26.27221568226549</v>
+        <v>14.72166649283867</v>
       </c>
       <c r="R4">
-        <v>26.27221568226549</v>
+        <v>132.494998435548</v>
       </c>
       <c r="S4">
-        <v>0.02256578604027022</v>
+        <v>0.01037701282861993</v>
       </c>
       <c r="T4">
-        <v>0.02256578604027022</v>
+        <v>0.01037701282861993</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.152554721020667</v>
+        <v>0.269164</v>
       </c>
       <c r="H5">
-        <v>0.152554721020667</v>
+        <v>0.8074920000000001</v>
       </c>
       <c r="I5">
-        <v>0.006807433569543921</v>
+        <v>0.01089095165781685</v>
       </c>
       <c r="J5">
-        <v>0.006807433569543921</v>
+        <v>0.01089095165781686</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.317727218227285</v>
+        <v>2.008422</v>
       </c>
       <c r="N5">
-        <v>0.317727218227285</v>
+        <v>6.025265999999999</v>
       </c>
       <c r="O5">
-        <v>0.006115759881883679</v>
+        <v>0.03498819126638183</v>
       </c>
       <c r="P5">
-        <v>0.006115759881883679</v>
+        <v>0.03498819126638184</v>
       </c>
       <c r="Q5">
-        <v>0.04847078713733605</v>
+        <v>0.540594899208</v>
       </c>
       <c r="R5">
-        <v>0.04847078713733605</v>
+        <v>4.865354092872</v>
       </c>
       <c r="S5">
-        <v>4.163262912320492E-05</v>
+        <v>0.0003810546996766144</v>
       </c>
       <c r="T5">
-        <v>4.163262912320492E-05</v>
+        <v>0.0003810546996766145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.152554721020667</v>
+        <v>20.07911633333334</v>
       </c>
       <c r="H6">
-        <v>0.152554721020667</v>
+        <v>60.237349</v>
       </c>
       <c r="I6">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867432</v>
       </c>
       <c r="J6">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867433</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>50.3201449905407</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N6">
-        <v>50.3201449905407</v>
+        <v>1.14273</v>
       </c>
       <c r="O6">
-        <v>0.968585334617363</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P6">
-        <v>0.968585334617363</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q6">
-        <v>7.67657568075145</v>
+        <v>7.648336202529999</v>
       </c>
       <c r="R6">
-        <v>7.67657568075145</v>
+        <v>68.83502582276999</v>
       </c>
       <c r="S6">
-        <v>0.006593580321842168</v>
+        <v>0.005391161586893708</v>
       </c>
       <c r="T6">
-        <v>0.006593580321842168</v>
+        <v>0.005391161586893711</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.152554721020667</v>
+        <v>20.07911633333334</v>
       </c>
       <c r="H7">
-        <v>0.152554721020667</v>
+        <v>60.237349</v>
       </c>
       <c r="I7">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867432</v>
       </c>
       <c r="J7">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867433</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.31433395427447</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>1.31433395427447</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.02529890550075341</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P7">
-        <v>0.02529890550075341</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q7">
-        <v>0.2005078497223319</v>
+        <v>6.414902858328445</v>
       </c>
       <c r="R7">
-        <v>0.2005078497223319</v>
+        <v>57.73412572495601</v>
       </c>
       <c r="S7">
-        <v>0.0001722206185785481</v>
+        <v>0.004521738709921639</v>
       </c>
       <c r="T7">
-        <v>0.0001722206185785481</v>
+        <v>0.004521738709921641</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.26846942958069</v>
+        <v>20.07911633333334</v>
       </c>
       <c r="H8">
-        <v>2.26846942958069</v>
+        <v>60.237349</v>
       </c>
       <c r="I8">
-        <v>0.1012256772068018</v>
+        <v>0.8124440315867432</v>
       </c>
       <c r="J8">
-        <v>0.1012256772068018</v>
+        <v>0.8124440315867433</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.317727218227285</v>
+        <v>54.69403966666666</v>
       </c>
       <c r="N8">
-        <v>0.317727218227285</v>
+        <v>164.082119</v>
       </c>
       <c r="O8">
-        <v>0.006115759881883679</v>
+        <v>0.9528104755815301</v>
       </c>
       <c r="P8">
-        <v>0.006115759881883679</v>
+        <v>0.9528104755815303</v>
       </c>
       <c r="Q8">
-        <v>0.7207544814943087</v>
+        <v>1098.207985206948</v>
       </c>
       <c r="R8">
-        <v>0.7207544814943087</v>
+        <v>9883.87186686253</v>
       </c>
       <c r="S8">
-        <v>0.0006190719356778656</v>
+        <v>0.7741051841195404</v>
       </c>
       <c r="T8">
-        <v>0.0006190719356778656</v>
+        <v>0.7741051841195407</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.26846942958069</v>
+        <v>20.07911633333334</v>
       </c>
       <c r="H9">
-        <v>2.26846942958069</v>
+        <v>60.237349</v>
       </c>
       <c r="I9">
-        <v>0.1012256772068018</v>
+        <v>0.8124440315867432</v>
       </c>
       <c r="J9">
-        <v>0.1012256772068018</v>
+        <v>0.8124440315867433</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.3201449905407</v>
+        <v>2.008422</v>
       </c>
       <c r="N9">
-        <v>50.3201449905407</v>
+        <v>6.025265999999999</v>
       </c>
       <c r="O9">
-        <v>0.968585334617363</v>
+        <v>0.03498819126638183</v>
       </c>
       <c r="P9">
-        <v>0.968585334617363</v>
+        <v>0.03498819126638184</v>
       </c>
       <c r="Q9">
-        <v>114.1497106031095</v>
+        <v>40.327338984426</v>
       </c>
       <c r="R9">
-        <v>114.1497106031095</v>
+        <v>362.946050859834</v>
       </c>
       <c r="S9">
-        <v>0.0980457064292193</v>
+        <v>0.02842594717038733</v>
       </c>
       <c r="T9">
-        <v>0.0980457064292193</v>
+        <v>0.02842594717038734</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.174593</v>
+      </c>
+      <c r="H10">
+        <v>0.523779</v>
+      </c>
+      <c r="I10">
+        <v>0.007064406543197522</v>
+      </c>
+      <c r="J10">
+        <v>0.007064406543197523</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3809099999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.14273</v>
+      </c>
+      <c r="O10">
+        <v>0.006635732896411959</v>
+      </c>
+      <c r="P10">
+        <v>0.006635732896411961</v>
+      </c>
+      <c r="Q10">
+        <v>0.06650421962999999</v>
+      </c>
+      <c r="R10">
+        <v>0.5985379766699999</v>
+      </c>
+      <c r="S10">
+        <v>4.687751489232369E-05</v>
+      </c>
+      <c r="T10">
+        <v>4.687751489232371E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.174593</v>
+      </c>
+      <c r="H11">
+        <v>0.523779</v>
+      </c>
+      <c r="I11">
+        <v>0.007064406543197522</v>
+      </c>
+      <c r="J11">
+        <v>0.007064406543197523</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3194813333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.9584440000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.005565600255676026</v>
+      </c>
+      <c r="P11">
+        <v>0.005565600255676028</v>
+      </c>
+      <c r="Q11">
+        <v>0.05577920443066667</v>
+      </c>
+      <c r="R11">
+        <v>0.502012839876</v>
+      </c>
+      <c r="S11">
+        <v>3.931766286301952E-05</v>
+      </c>
+      <c r="T11">
+        <v>3.931766286301954E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.174593</v>
+      </c>
+      <c r="H12">
+        <v>0.523779</v>
+      </c>
+      <c r="I12">
+        <v>0.007064406543197522</v>
+      </c>
+      <c r="J12">
+        <v>0.007064406543197523</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>54.69403966666666</v>
+      </c>
+      <c r="N12">
+        <v>164.082119</v>
+      </c>
+      <c r="O12">
+        <v>0.9528104755815301</v>
+      </c>
+      <c r="P12">
+        <v>0.9528104755815303</v>
+      </c>
+      <c r="Q12">
+        <v>9.549196467522332</v>
+      </c>
+      <c r="R12">
+        <v>85.94276820770099</v>
+      </c>
+      <c r="S12">
+        <v>0.006731040558125304</v>
+      </c>
+      <c r="T12">
+        <v>0.006731040558125306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.174593</v>
+      </c>
+      <c r="H13">
+        <v>0.523779</v>
+      </c>
+      <c r="I13">
+        <v>0.007064406543197522</v>
+      </c>
+      <c r="J13">
+        <v>0.007064406543197523</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.008422</v>
+      </c>
+      <c r="N13">
+        <v>6.025265999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.03498819126638183</v>
+      </c>
+      <c r="P13">
+        <v>0.03498819126638184</v>
+      </c>
+      <c r="Q13">
+        <v>0.350656422246</v>
+      </c>
+      <c r="R13">
+        <v>3.155907800214</v>
+      </c>
+      <c r="S13">
+        <v>0.0002471708073168742</v>
+      </c>
+      <c r="T13">
+        <v>0.0002471708073168743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.191587666666666</v>
+      </c>
+      <c r="H14">
+        <v>12.574763</v>
+      </c>
+      <c r="I14">
+        <v>0.1696006102122423</v>
+      </c>
+      <c r="J14">
+        <v>0.1696006102122424</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3809099999999999</v>
+      </c>
+      <c r="N14">
+        <v>1.14273</v>
+      </c>
+      <c r="O14">
+        <v>0.006635732896411959</v>
+      </c>
+      <c r="P14">
+        <v>0.006635732896411961</v>
+      </c>
+      <c r="Q14">
+        <v>1.596617658109999</v>
+      </c>
+      <c r="R14">
+        <v>14.36955892299</v>
+      </c>
+      <c r="S14">
+        <v>0.001125424348436919</v>
+      </c>
+      <c r="T14">
+        <v>0.001125424348436919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.191587666666666</v>
+      </c>
+      <c r="H15">
+        <v>12.574763</v>
+      </c>
+      <c r="I15">
+        <v>0.1696006102122423</v>
+      </c>
+      <c r="J15">
+        <v>0.1696006102122424</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3194813333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.9584440000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.005565600255676026</v>
+      </c>
+      <c r="P15">
+        <v>0.005565600255676028</v>
+      </c>
+      <c r="Q15">
+        <v>1.339134016530222</v>
+      </c>
+      <c r="R15">
+        <v>12.052206148772</v>
+      </c>
+      <c r="S15">
+        <v>0.000943929199560066</v>
+      </c>
+      <c r="T15">
+        <v>0.0009439291995600666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.26846942958069</v>
-      </c>
-      <c r="H10">
-        <v>2.26846942958069</v>
-      </c>
-      <c r="I10">
-        <v>0.1012256772068018</v>
-      </c>
-      <c r="J10">
-        <v>0.1012256772068018</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.31433395427447</v>
-      </c>
-      <c r="N10">
-        <v>1.31433395427447</v>
-      </c>
-      <c r="O10">
-        <v>0.02529890550075341</v>
-      </c>
-      <c r="P10">
-        <v>0.02529890550075341</v>
-      </c>
-      <c r="Q10">
-        <v>2.98152639553154</v>
-      </c>
-      <c r="R10">
-        <v>2.98152639553154</v>
-      </c>
-      <c r="S10">
-        <v>0.002560898841904647</v>
-      </c>
-      <c r="T10">
-        <v>0.002560898841904647</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.191587666666666</v>
+      </c>
+      <c r="H16">
+        <v>12.574763</v>
+      </c>
+      <c r="I16">
+        <v>0.1696006102122423</v>
+      </c>
+      <c r="J16">
+        <v>0.1696006102122424</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>54.69403966666666</v>
+      </c>
+      <c r="N16">
+        <v>164.082119</v>
+      </c>
+      <c r="O16">
+        <v>0.9528104755815301</v>
+      </c>
+      <c r="P16">
+        <v>0.9528104755815303</v>
+      </c>
+      <c r="Q16">
+        <v>229.2548621069774</v>
+      </c>
+      <c r="R16">
+        <v>2063.293758962796</v>
+      </c>
+      <c r="S16">
+        <v>0.1615972380752443</v>
+      </c>
+      <c r="T16">
+        <v>0.1615972380752444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.191587666666666</v>
+      </c>
+      <c r="H17">
+        <v>12.574763</v>
+      </c>
+      <c r="I17">
+        <v>0.1696006102122423</v>
+      </c>
+      <c r="J17">
+        <v>0.1696006102122424</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.008422</v>
+      </c>
+      <c r="N17">
+        <v>6.025265999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.03498819126638183</v>
+      </c>
+      <c r="P17">
+        <v>0.03498819126638184</v>
+      </c>
+      <c r="Q17">
+        <v>8.418476884661999</v>
+      </c>
+      <c r="R17">
+        <v>75.76629196195799</v>
+      </c>
+      <c r="S17">
+        <v>0.005934018589001006</v>
+      </c>
+      <c r="T17">
+        <v>0.00593401858900101</v>
       </c>
     </row>
   </sheetData>
